--- a/data_join_period.xlsx
+++ b/data_join_period.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zribe\Desktop\Thèse\Travaux de doctorat\Chapitre 1 - Analyses phénotypiques\Chapitre 1\Terrain\Terrain serre 2020\Data et analyses\Data serre 2020\Data pour R\Data R temperature\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zribe\Desktop\Thèse\Travaux de doctorat\Chapitre 1 - Analyses phénotypiques\Chapitre 1\Terrain\Terrain serre 2020\Data et analyses\Data serre 2020\Températures serre 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89A74E37-4785-4695-930F-3CDFAE3554D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BC811F-E8DD-41D4-A95E-8CEF516F66A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47873173-6246-41BE-B1F7-99701D0BE233}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="raw data" sheetId="1" r:id="rId1"/>
+    <sheet name="legend" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,13 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="12">
-  <si>
-    <t>Period_AS</t>
-  </si>
-  <si>
-    <t>Period_PG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="21">
   <si>
     <t>Initiale</t>
   </si>
@@ -71,12 +66,45 @@
   <si>
     <t>Date2</t>
   </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Initial = initial period before the beginning of the experiment and before the bud burst</t>
+  </si>
+  <si>
+    <t>Before Drought = acclimation period were all seedlings were well watered, seedlings with leaves (30 days)</t>
+  </si>
+  <si>
+    <t>Drought 1 = first drought treatment (12 days)</t>
+  </si>
+  <si>
+    <t>Rewatering 1 = first period of rehydration for stressed seedlings (after Drought 1) (20 days)</t>
+  </si>
+  <si>
+    <t>Drought 2 = second drought treatment (30 days)</t>
+  </si>
+  <si>
+    <t>Rewatering 2 = second period of rehydration (after Drought 2) (15 days)</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>HW = Heat wave event ; No, Yes= period not concerning or concerning by the heat wave event, respectively</t>
+  </si>
+  <si>
+    <t>Year-month-day</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,6 +114,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,9 +147,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB8E3064-60DD-4790-8C5E-4701D9546DEE}">
-  <dimension ref="A1:D132"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="A1:XFD1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,1852 +486,1456 @@
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43984</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43985</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43986</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43987</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43988</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43989</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43990</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43991</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43992</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43993</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43994</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43995</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43996</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43997</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43998</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
       </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43999</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
         <v>3</v>
       </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>44000</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>44001</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>44002</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>44003</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>44004</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>44005</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>3</v>
       </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>44006</v>
       </c>
       <c r="B24" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>44007</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="D25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>44008</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>44009</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
       </c>
-      <c r="D27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>44010</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44011</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29" t="s">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>44012</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C30" t="s">
         <v>3</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>44013</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
       </c>
-      <c r="D31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>44014</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>44015</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>3</v>
       </c>
-      <c r="D33" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>44016</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
-      <c r="D34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44017</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>44018</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s">
         <v>3</v>
       </c>
-      <c r="D36" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>44019</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
       </c>
-      <c r="D37" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>44020</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
       </c>
-      <c r="D38" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>44021</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>3</v>
       </c>
-      <c r="D39" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>44022</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>44023</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" t="s">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>44024</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>3</v>
       </c>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>44025</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C43" t="s">
         <v>3</v>
       </c>
-      <c r="D43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>44026</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>3</v>
       </c>
-      <c r="D44" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44027</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
       </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44028</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>3</v>
       </c>
-      <c r="D46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>44029</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>3</v>
       </c>
-      <c r="D47" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>44030</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>3</v>
       </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>44031</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>3</v>
       </c>
-      <c r="D49" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>44032</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C50" t="s">
         <v>3</v>
       </c>
-      <c r="D50" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>44033</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>3</v>
       </c>
-      <c r="D51" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>44034</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
       </c>
-      <c r="D52" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>44035</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>3</v>
       </c>
-      <c r="D53" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>44036</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
       </c>
-      <c r="D54" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>44037</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>44038</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>44039</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>44040</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>44041</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>44042</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>44043</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>44044</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>44045</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>44046</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>44047</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>44048</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>44049</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>44050</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>44051</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>44052</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>44053</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>44054</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>44055</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>44056</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>44057</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>44058</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>44059</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>44060</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>44061</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>44062</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>44063</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>44064</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>44065</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>44066</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>44067</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>44068</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>44069</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>44070</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>44071</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
-      </c>
-      <c r="D89" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>44072</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>44073</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>44074</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>44075</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>44076</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
-      </c>
-      <c r="D94" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>44077</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>44078</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
-      </c>
-      <c r="D96" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>44079</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>44080</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
-      </c>
-      <c r="D98" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>44081</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>44082</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>44083</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>44084</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>44085</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>44086</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>44087</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>44088</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>44089</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>44090</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>44091</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>44092</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>44093</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>44094</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
-      </c>
-      <c r="D112" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>44095</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
-      </c>
-      <c r="D113" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>44096</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
-      </c>
-      <c r="D114" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44097</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
-      </c>
-      <c r="D115" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44098</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44099</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
-      </c>
-      <c r="D117" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44100</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
-      </c>
-      <c r="D118" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44101</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>10</v>
-      </c>
-      <c r="D119" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44102</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
-      </c>
-      <c r="D120" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44103</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
-      </c>
-      <c r="D121" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44104</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
-      </c>
-      <c r="D122" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44105</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
-      </c>
-      <c r="D123" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44106</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
-      </c>
-      <c r="D124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44107</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>10</v>
-      </c>
-      <c r="D125" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44108</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>10</v>
-      </c>
-      <c r="D126" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44109</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>10</v>
-      </c>
-      <c r="D127" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44110</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
-      </c>
-      <c r="D128" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44111</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
-      </c>
-      <c r="D129" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44112</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
-      </c>
-      <c r="D130" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44113</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44114</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
-      </c>
-      <c r="D132" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2293,4 +1943,88 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A40A5338-8BF5-4069-9D09-C006AC6A57B5}">
+  <dimension ref="A2:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="87.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>